--- a/학습자료/단답형/객관식_영어_단어_Day11.xlsx
+++ b/학습자료/단답형/객관식_영어_단어_Day11.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>sheer
-1. 몰두시키다, 독점하다
-2. 완전한
-3. 강화하다</t>
+1. 완전한
+2. 무서운
+3. 몰두시키다, 독점하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 완전한</t>
+          <t>1, 완전한</t>
         </is>
       </c>
     </row>
@@ -464,26 +464,26 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>utter
-1. 완전한
-2. 몰두시키다, 독점하다
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>absolute
 1. 완전한
 2. 안정하다, 고정시키다
 3. 몰두시키다, 독점하다</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>absolute
+1. 완전한
+2. 때때로, 가끔
+3. 관리할 수 있는</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>1, 완전한</t>
@@ -494,146 +494,146 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>outright
+1. 영감을 받다
+2. 완전한
+3. 안정하다, 고정시키다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>integral
+1. 몰두시키다, 독점하다
+2. 안정하다, 고정시키다
+3. 완전한</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>whole
 1. 관리할 수 있는
 2. 완전한
-3. 무서운</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+3. 강화하다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>2, 완전한</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>integral
-1. 때때로, 가끔
-2. 완전한
-3. 관리할 수 있는</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>whole
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>consummate
 1. 완전한
 2. 무서운
 3. 때때로, 가끔</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>1, 완전한</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>consummate
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>intact
+1. 때때로, 가끔
+2. 완전한
+3. 몰두시키다, 독점하다</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>plenary
+1. 관리할 수 있는
+2. 때때로, 가끔
+3. 완전한</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>scary
+1. 관리할 수 있는
+2. 정통하다, 잘 알다
+3. 무서운</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>frightening
+1. 때때로, 가끔
+2. 무서운
+3. 영감을 받다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>terrifying
 1. 완전한
+2. 몰두시키다, 독점하다
+3. 무서운</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>horrifying
+1. 때때로, 가끔
 2. 무서운
 3. 무관심한</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>intact
-1. 몰두시키다, 독점하다
-2. 안정하다, 고정시키다
-3. 완전한</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>plenary
-1. 관리할 수 있는
-2. 완전한
-3. 무관심한</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>scary
-1. 무서운
-2. 무관심한
-3. 관리할 수 있는</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>frightening
-1. 강화하다
-2. 무서운
-3. 무관심한</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>terrifying
-1. 몰두시키다, 독점하다
-2. 무서운
-3. 관리할 수 있는</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>horrifying
-1. 완전한
-2. 무서운
-3. 무관심한</t>
-        </is>
-      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>2, 무서운</t>
@@ -644,9 +644,9 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>creepy
-1. 안정하다, 고정시키다
+1. 때때로, 가끔
 2. 무서운
-3. 때때로, 가끔</t>
+3. 정통하다, 잘 알다</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -661,7 +661,7 @@
           <t>awful
 1. 무서운
 2. 몰두시키다, 독점하다
-3. 영감을 받다</t>
+3. 관리할 수 있는</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>horrid
-1. 무서운
-2. 무관심한
-3. 관리할 수 있는</t>
+1. 안정하다, 고정시키다
+2. 무서운
+3. 영감을 받다</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, 무서운</t>
+          <t>2, 무서운</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>formidable
-1. 영감을 받다
-2. 무서운
+1. 무서운
+2. 몰두시키다, 독점하다
 3. 때때로, 가끔</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2, 무서운</t>
+          <t>1, 무서운</t>
         </is>
       </c>
     </row>
@@ -719,8 +719,8 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>dire
-1. 관리할 수 있는
-2. 강화하다
+1. 영감을 받다
+2. 안정하다, 고정시키다
 3. 무서운</t>
         </is>
       </c>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>dreadful
-1. 강화하다
-2. 관리할 수 있는
-3. 무서운</t>
+1. 무서운
+2. 영감을 받다
+3. 몰두시키다, 독점하다</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 무서운</t>
+          <t>1, 무서운</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>occasional
-1. 몰두시키다, 독점하다
-2. 무관심한
-3. 때때로, 가끔</t>
+1. 안정하다, 고정시키다
+2. 때때로, 가끔
+3. 강화하다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 때때로, 가끔</t>
+          <t>2, 때때로, 가끔</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>at times
-1. 영감을 받다
-2. 관리할 수 있는
-3. 때때로, 가끔</t>
+1. 때때로, 가끔
+2. 무관심한
+3. 강화하다</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 때때로, 가끔</t>
+          <t>1, 때때로, 가끔</t>
         </is>
       </c>
     </row>
@@ -780,8 +780,8 @@
         <is>
           <t>from time to time
 1. 때때로, 가끔
-2. 안정하다, 고정시키다
-3. 정통하다, 잘 알다</t>
+2. 무서운
+3. 강화하다</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>now and then
-1. 관리할 수 있는
-2. 때때로, 가끔
-3. 정통하다, 잘 알다</t>
+1. 영감을 받다
+2. 안정하다, 고정시키다
+3. 때때로, 가끔</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2, 때때로, 가끔</t>
+          <t>3, 때때로, 가끔</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>once in a while
-1. 안정하다, 고정시키다
+1. 때때로, 가끔
 2. 관리할 수 있는
-3. 때때로, 가끔</t>
+3. 영감을 받다</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 때때로, 가끔</t>
+          <t>1, 때때로, 가끔</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>manageable
-1. 무서운
-2. 관리할 수 있는
-3. 무관심한</t>
+1. 관리할 수 있는
+2. 완전한
+3. 영감을 받다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 관리할 수 있는</t>
+          <t>1, 관리할 수 있는</t>
         </is>
       </c>
     </row>
@@ -839,44 +839,44 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>administrable
+1. 몰두시키다, 독점하다
+2. 관리할 수 있는
+3. 완전한</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2, 관리할 수 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>controllable
+1. 안정하다, 고정시키다
+2. 때때로, 가끔
+3. 관리할 수 있는</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3, 관리할 수 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>governable
 1. 관리할 수 있는
 2. 안정하다, 고정시키다
 3. 영감을 받다</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>1, 관리할 수 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>controllable
-1. 강화하다
-2. 무관심한
-3. 관리할 수 있는</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>3, 관리할 수 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>governable
-1. 무관심한
-2. 관리할 수 있는
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2, 관리할 수 있는</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
           <t>engross
 1. 몰두시키다, 독점하다
 2. 안정하다, 고정시키다
-3. 때때로, 가끔</t>
+3. 관리할 수 있는</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -899,29 +899,29 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>preoccupy
-1. 몰두시키다, 독점하다
-2. 완전한
-3. 관리할 수 있는</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1, 몰두시키다, 독점하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>absorb
 1. 완전한
 2. 몰두시키다, 독점하다
 3. 무관심한</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 몰두시키다, 독점하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>absorb
+1. 몰두시키다, 독점하다
+2. 정통하다, 잘 알다
+3. 강화하다</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 몰두시키다, 독점하다</t>
+          <t>1, 몰두시키다, 독점하다</t>
         </is>
       </c>
     </row>
@@ -929,59 +929,59 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>immerse
-1. 몰두시키다, 독점하다
+1. 무서운
+2. 관리할 수 있는
+3. 몰두시키다, 독점하다</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3, 몰두시키다, 독점하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>monopolize
+1. 관리할 수 있는
+2. 완전한
+3. 몰두시키다, 독점하다</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 몰두시키다, 독점하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>forestall
+1. 정통하다, 잘 알다
+2. 안정하다, 고정시키다
+3. 몰두시키다, 독점하다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, 몰두시키다, 독점하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>enhance
+1. 때때로, 가끔
 2. 강화하다
 3. 무서운</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1, 몰두시키다, 독점하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>monopolize
-1. 몰두시키다, 독점하다
-2. 정통하다, 잘 알다
-3. 영감을 받다</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 몰두시키다, 독점하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>forestall
-1. 무관심한
-2. 관리할 수 있는
-3. 몰두시키다, 독점하다</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3, 몰두시키다, 독점하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>enhance
-1. 강화하다
-2. 관리할 수 있는
-3. 때때로, 가끔</t>
-        </is>
-      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1, 강화하다</t>
+          <t>2, 강화하다</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>reinforce
-1. 강화하다
-2. 무관심한
-3. 관리할 수 있는</t>
+1. 완전한
+2. 무서운
+3. 강화하다</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1, 강화하다</t>
+          <t>3, 강화하다</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>consolidate
-1. 관리할 수 있는
-2. 강화하다
-3. 무서운</t>
+1. 강화하다
+2. 때때로, 가끔
+3. 무관심한</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2, 강화하다</t>
+          <t>1, 강화하다</t>
         </is>
       </c>
     </row>
@@ -1019,14 +1019,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>bolster
-1. 강화하다
-2. 무관심한
+1. 때때로, 가끔
+2. 강화하다
 3. 정통하다, 잘 알다</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1, 강화하다</t>
+          <t>2, 강화하다</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>beef up
-1. 강화하다
-2. 때때로, 가끔
-3. 몰두시키다, 독점하다</t>
+1. 몰두시키다, 독점하다
+2. 안정하다, 고정시키다
+3. 강화하다</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1, 강화하다</t>
+          <t>3, 강화하다</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
           <t>solidify
 1. 때때로, 가끔
 2. 강화하다
-3. 몰두시키다, 독점하다</t>
+3. 완전한</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1064,14 +1064,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>apathetic
-1. 몰두시키다, 독점하다
-2. 강화하다
-3. 무관심한</t>
+1. 때때로, 가끔
+2. 무관심한
+3. 영감을 받다</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3, 무관심한</t>
+          <t>2, 무관심한</t>
         </is>
       </c>
     </row>
@@ -1079,14 +1079,14 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>indifferent
-1. 때때로, 가끔
-2. 무관심한
-3. 무서운</t>
+1. 무관심한
+2. 안정하다, 고정시키다
+3. 강화하다</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2, 무관심한</t>
+          <t>1, 무관심한</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>disinterested
-1. 무관심한
-2. 안정하다, 고정시키다
-3. 완전한</t>
+1. 무서운
+2. 무관심한
+3. 정통하다, 잘 알다</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1, 무관심한</t>
+          <t>2, 무관심한</t>
         </is>
       </c>
     </row>
@@ -1110,13 +1110,13 @@
         <is>
           <t>unconcerned
 1. 관리할 수 있는
-2. 무서운
-3. 무관심한</t>
+2. 무관심한
+3. 몰두시키다, 독점하다</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3, 무관심한</t>
+          <t>2, 무관심한</t>
         </is>
       </c>
     </row>
@@ -1124,9 +1124,9 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>unmindful
-1. 영감을 받다
+1. 무서운
 2. 무관심한
-3. 정통하다, 잘 알다</t>
+3. 강화하다</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1140,8 +1140,8 @@
         <is>
           <t>stabilize
 1. 안정하다, 고정시키다
-2. 무관심한
-3. 관리할 수 있는</t>
+2. 때때로, 가끔
+3. 정통하다, 잘 알다</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1170,8 +1170,8 @@
         <is>
           <t>tranquilize
 1. 안정하다, 고정시키다
-2. 무관심한
-3. 무서운</t>
+2. 관리할 수 있는
+3. 때때로, 가끔</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>fasten
-1. 완전한
-2. 안정하다, 고정시키다
-3. 영감을 받다</t>
+1. 안정하다, 고정시키다
+2. 몰두시키다, 독점하다
+3. 무관심한</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2, 안정하다, 고정시키다</t>
+          <t>1, 안정하다, 고정시키다</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>fixate
-1. 때때로, 가끔
-2. 안정하다, 고정시키다
-3. 정통하다, 잘 알다</t>
+1. 안정하다, 고정시키다
+2. 정통하다, 잘 알다
+3. 무관심한</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2, 안정하다, 고정시키다</t>
+          <t>1, 안정하다, 고정시키다</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>keep abreast of
-1. 완전한
-2. 정통하다, 잘 알다
-3. 때때로, 가끔</t>
+1. 영감을 받다
+2. 강화하다
+3. 정통하다, 잘 알다</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2, 정통하다, 잘 알다</t>
+          <t>3, 정통하다, 잘 알다</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1229,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>be acquainted with
-1. 무관심한
-2. 정통하다, 잘 알다
-3. 완전한</t>
+1. 영감을 받다
+2. 무관심한
+3. 정통하다, 잘 알다</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2, 정통하다, 잘 알다</t>
+          <t>3, 정통하다, 잘 알다</t>
         </is>
       </c>
     </row>
@@ -1245,8 +1245,8 @@
         <is>
           <t>be familiar with
 1. 정통하다, 잘 알다
-2. 무서운
-3. 몰두시키다, 독점하다</t>
+2. 때때로, 가끔
+3. 무관심한</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1260,8 +1260,8 @@
         <is>
           <t>get inspired
 1. 영감을 받다
-2. 안정하다, 고정시키다
-3. 정통하다, 잘 알다</t>
+2. 몰두시키다, 독점하다
+3. 무서운</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>be inspired
-1. 정통하다, 잘 알다
+1. 영감을 받다
 2. 관리할 수 있는
-3. 영감을 받다</t>
+3. 정통하다, 잘 알다</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, 영감을 받다</t>
+          <t>1, 영감을 받다</t>
         </is>
       </c>
     </row>
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>have a brain wave
-1. 완전한
-2. 무서운
-3. 영감을 받다</t>
+1. 무서운
+2. 영감을 받다
+3. 정통하다, 잘 알다</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3, 영감을 받다</t>
+          <t>2, 영감을 받다</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_단어_Day11.xlsx
+++ b/학습자료/단답형/객관식_영어_단어_Day11.xlsx
@@ -451,7 +451,7 @@
           <t>sheer
 1. 완전한
 2. 무서운
-3. 몰두시키다, 독점하다</t>
+3. 강화하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,329 +464,329 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>utter
+1. 안정하다, 고정시키다
+2. 완전한
+3. 영감을 받다</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>absolute
+1. 때때로, 가끔
+2. 강화하다
+3. 완전한</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>outright
+1. 정통하다, 잘 알다
+2. 완전한
+3. 몰두시키다, 독점하다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>integral
+1. 몰두시키다, 독점하다
+2. 영감을 받다
+3. 완전한</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>whole
+1. 정통하다, 잘 알다
+2. 완전한
+3. 영감을 받다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>consummate
 1. 완전한
+2. 때때로, 가끔
+3. 무관심한</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>intact
+1. 정통하다, 잘 알다
+2. 영감을 받다
+3. 완전한</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>plenary
+1. 영감을 받다
+2. 관리할 수 있는
+3. 완전한</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 완전한</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>scary
+1. 무서운
+2. 몰두시키다, 독점하다
+3. 영감을 받다</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>frightening
+1. 몰두시키다, 독점하다
+2. 정통하다, 잘 알다
+3. 무서운</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>terrifying
+1. 몰두시키다, 독점하다
+2. 강화하다
+3. 무서운</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>horrifying
+1. 몰두시키다, 독점하다
+2. 무서운
+3. 영감을 받다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>creepy
+1. 무서운
+2. 때때로, 가끔
+3. 영감을 받다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>awful
+1. 무서운
+2. 안정하다, 고정시키다
+3. 때때로, 가끔</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>horrid
+1. 강화하다
+2. 몰두시키다, 독점하다
+3. 무서운</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>formidable
+1. 몰두시키다, 독점하다
+2. 영감을 받다
+3. 무서운</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>horrendous
+1. 무서운
+2. 강화하다
+3. 안정하다, 고정시키다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dire
+1. 몰두시키다, 독점하다
+2. 무서운
+3. 정통하다, 잘 알다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>dreadful
+1. 무서운
 2. 안정하다, 고정시키다
 3. 몰두시키다, 독점하다</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>absolute
-1. 완전한
-2. 때때로, 가끔
-3. 관리할 수 있는</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>outright
-1. 영감을 받다
-2. 완전한
-3. 안정하다, 고정시키다</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>integral
-1. 몰두시키다, 독점하다
-2. 안정하다, 고정시키다
-3. 완전한</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>whole
-1. 관리할 수 있는
-2. 완전한
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>consummate
-1. 완전한
-2. 무서운
-3. 때때로, 가끔</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>intact
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1, 무서운</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>occasional
 1. 때때로, 가끔
 2. 완전한
-3. 몰두시키다, 독점하다</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>plenary
-1. 관리할 수 있는
+3. 정통하다, 잘 알다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1, 때때로, 가끔</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>at times
+1. 정통하다, 잘 알다
 2. 때때로, 가끔
-3. 완전한</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 완전한</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>scary
-1. 관리할 수 있는
-2. 정통하다, 잘 알다
 3. 무서운</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>frightening
-1. 때때로, 가끔
-2. 무서운
-3. 영감을 받다</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>terrifying
-1. 완전한
-2. 몰두시키다, 독점하다
-3. 무서운</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>horrifying
-1. 때때로, 가끔
-2. 무서운
-3. 무관심한</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>creepy
-1. 때때로, 가끔
-2. 무서운
-3. 정통하다, 잘 알다</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>awful
-1. 무서운
-2. 몰두시키다, 독점하다
-3. 관리할 수 있는</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>horrid
-1. 안정하다, 고정시키다
-2. 무서운
-3. 영감을 받다</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>formidable
-1. 무서운
-2. 몰두시키다, 독점하다
-3. 때때로, 가끔</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>horrendous
-1. 영감을 받다
-2. 무서운
-3. 몰두시키다, 독점하다</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>dire
-1. 영감을 받다
-2. 안정하다, 고정시키다
-3. 무서운</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>dreadful
-1. 무서운
-2. 영감을 받다
-3. 몰두시키다, 독점하다</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1, 무서운</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>occasional
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2, 때때로, 가끔</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>from time to time
 1. 안정하다, 고정시키다
 2. 때때로, 가끔
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+3. 영감을 받다</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>2, 때때로, 가끔</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>at times
-1. 때때로, 가끔
-2. 무관심한
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1, 때때로, 가끔</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>from time to time
-1. 때때로, 가끔
-2. 무서운
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1, 때때로, 가끔</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>now and then
-1. 영감을 받다
-2. 안정하다, 고정시키다
-3. 때때로, 가끔</t>
+1. 정통하다, 잘 알다
+2. 때때로, 가끔
+3. 몰두시키다, 독점하다</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 때때로, 가끔</t>
+          <t>2, 때때로, 가끔</t>
         </is>
       </c>
     </row>
@@ -810,8 +810,8 @@
         <is>
           <t>once in a while
 1. 때때로, 가끔
-2. 관리할 수 있는
-3. 영감을 받다</t>
+2. 정통하다, 잘 알다
+3. 관리할 수 있는</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -826,7 +826,7 @@
           <t>manageable
 1. 관리할 수 있는
 2. 완전한
-3. 영감을 받다</t>
+3. 무서운</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>administrable
-1. 몰두시키다, 독점하다
-2. 관리할 수 있는
-3. 완전한</t>
+1. 완전한
+2. 무서운
+3. 관리할 수 있는</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 관리할 수 있는</t>
+          <t>3, 관리할 수 있는</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>controllable
-1. 안정하다, 고정시키다
-2. 때때로, 가끔
-3. 관리할 수 있는</t>
+1. 정통하다, 잘 알다
+2. 관리할 수 있는
+3. 무서운</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3, 관리할 수 있는</t>
+          <t>2, 관리할 수 있는</t>
         </is>
       </c>
     </row>
@@ -870,8 +870,8 @@
         <is>
           <t>governable
 1. 관리할 수 있는
-2. 안정하다, 고정시키다
-3. 영감을 받다</t>
+2. 무서운
+3. 때때로, 가끔</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>engross
-1. 몰두시키다, 독점하다
-2. 안정하다, 고정시키다
-3. 관리할 수 있는</t>
+1. 완전한
+2. 몰두시키다, 독점하다
+3. 영감을 받다</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1, 몰두시키다, 독점하다</t>
+          <t>2, 몰두시키다, 독점하다</t>
         </is>
       </c>
     </row>
@@ -899,9 +899,9 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>preoccupy
-1. 완전한
+1. 무관심한
 2. 몰두시키다, 독점하다
-3. 무관심한</t>
+3. 관리할 수 있는</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>absorb
-1. 몰두시키다, 독점하다
-2. 정통하다, 잘 알다
-3. 강화하다</t>
+1. 관리할 수 있는
+2. 무관심한
+3. 몰두시키다, 독점하다</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1, 몰두시키다, 독점하다</t>
+          <t>3, 몰두시키다, 독점하다</t>
         </is>
       </c>
     </row>
@@ -929,8 +929,8 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>immerse
-1. 무서운
-2. 관리할 수 있는
+1. 영감을 받다
+2. 무관심한
 3. 몰두시키다, 독점하다</t>
         </is>
       </c>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>monopolize
-1. 관리할 수 있는
-2. 완전한
-3. 몰두시키다, 독점하다</t>
+1. 때때로, 가끔
+2. 몰두시키다, 독점하다
+3. 강화하다</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3, 몰두시키다, 독점하다</t>
+          <t>2, 몰두시키다, 독점하다</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>forestall
-1. 정통하다, 잘 알다
-2. 안정하다, 고정시키다
-3. 몰두시키다, 독점하다</t>
+1. 때때로, 가끔
+2. 몰두시키다, 독점하다
+3. 안정하다, 고정시키다</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3, 몰두시키다, 독점하다</t>
+          <t>2, 몰두시키다, 독점하다</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>enhance
-1. 때때로, 가끔
-2. 강화하다
-3. 무서운</t>
+1. 몰두시키다, 독점하다
+2. 때때로, 가끔
+3. 강화하다</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2, 강화하다</t>
+          <t>3, 강화하다</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>reinforce
-1. 완전한
-2. 무서운
-3. 강화하다</t>
+1. 강화하다
+2. 무관심한
+3. 완전한</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3, 강화하다</t>
+          <t>1, 강화하다</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>consolidate
-1. 강화하다
-2. 때때로, 가끔
-3. 무관심한</t>
+1. 영감을 받다
+2. 강화하다
+3. 때때로, 가끔</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1, 강화하다</t>
+          <t>2, 강화하다</t>
         </is>
       </c>
     </row>
@@ -1019,41 +1019,41 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>bolster
-1. 때때로, 가끔
+1. 안정하다, 고정시키다
+2. 강화하다
+3. 관리할 수 있는</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2, 강화하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>beef up
+1. 무관심한
+2. 완전한
+3. 강화하다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 강화하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>solidify
+1. 몰두시키다, 독점하다
 2. 강화하다
 3. 정통하다, 잘 알다</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2, 강화하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>beef up
-1. 몰두시키다, 독점하다
-2. 안정하다, 고정시키다
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>3, 강화하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>solidify
-1. 때때로, 가끔
-2. 강화하다
-3. 완전한</t>
-        </is>
-      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>2, 강화하다</t>
@@ -1064,44 +1064,44 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>apathetic
-1. 때때로, 가끔
+1. 무관심한
+2. 무서운
+3. 관리할 수 있는</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1, 무관심한</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>indifferent
+1. 안정하다, 고정시키다
 2. 무관심한
 3. 영감을 받다</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>2, 무관심한</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>indifferent
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>disinterested
 1. 무관심한
 2. 안정하다, 고정시키다
 3. 강화하다</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>1, 무관심한</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>disinterested
-1. 무서운
-2. 무관심한
-3. 정통하다, 잘 알다</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2, 무관심한</t>
         </is>
       </c>
     </row>
@@ -1109,134 +1109,134 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>unconcerned
-1. 관리할 수 있는
-2. 무관심한
-3. 몰두시키다, 독점하다</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2, 무관심한</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>unmindful
-1. 무서운
-2. 무관심한
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2, 무관심한</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>stabilize
-1. 안정하다, 고정시키다
-2. 때때로, 가끔
-3. 정통하다, 잘 알다</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1, 안정하다, 고정시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>settle
-1. 안정하다, 고정시키다
-2. 무서운
-3. 때때로, 가끔</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1, 안정하다, 고정시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>tranquilize
-1. 안정하다, 고정시키다
-2. 관리할 수 있는
-3. 때때로, 가끔</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1, 안정하다, 고정시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>fasten
-1. 안정하다, 고정시키다
-2. 몰두시키다, 독점하다
-3. 무관심한</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1, 안정하다, 고정시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>fixate
-1. 안정하다, 고정시키다
-2. 정통하다, 잘 알다
-3. 무관심한</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1, 안정하다, 고정시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>keep abreast of
-1. 영감을 받다
-2. 강화하다
-3. 정통하다, 잘 알다</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>3, 정통하다, 잘 알다</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>be acquainted with
 1. 영감을 받다
 2. 무관심한
 3. 정통하다, 잘 알다</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, 무관심한</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>unmindful
+1. 몰두시키다, 독점하다
+2. 무관심한
+3. 영감을 받다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2, 무관심한</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>stabilize
+1. 정통하다, 잘 알다
+2. 무관심한
+3. 안정하다, 고정시키다</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3, 안정하다, 고정시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>settle
+1. 영감을 받다
+2. 강화하다
+3. 안정하다, 고정시키다</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3, 안정하다, 고정시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>tranquilize
+1. 때때로, 가끔
+2. 완전한
+3. 안정하다, 고정시키다</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3, 안정하다, 고정시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>fasten
+1. 강화하다
+2. 관리할 수 있는
+3. 안정하다, 고정시키다</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3, 안정하다, 고정시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>fixate
+1. 안정하다, 고정시키다
+2. 몰두시키다, 독점하다
+3. 때때로, 가끔</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1, 안정하다, 고정시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>keep abreast of
+1. 몰두시키다, 독점하다
+2. 정통하다, 잘 알다
+3. 무관심한</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2, 정통하다, 잘 알다</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>be acquainted with
+1. 관리할 수 있는
+2. 정통하다, 잘 알다
+3. 무관심한</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3, 정통하다, 잘 알다</t>
+          <t>2, 정통하다, 잘 알다</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
           <t>be familiar with
 1. 정통하다, 잘 알다
 2. 때때로, 가끔
-3. 무관심한</t>
+3. 무서운</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>get inspired
-1. 영감을 받다
-2. 몰두시키다, 독점하다
-3. 무서운</t>
+1. 강화하다
+2. 영감을 받다
+3. 몰두시키다, 독점하다</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1, 영감을 받다</t>
+          <t>2, 영감을 받다</t>
         </is>
       </c>
     </row>
@@ -1275,8 +1275,8 @@
         <is>
           <t>be inspired
 1. 영감을 받다
-2. 관리할 수 있는
-3. 정통하다, 잘 알다</t>
+2. 무서운
+3. 무관심한</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>have a brain wave
-1. 무서운
-2. 영감을 받다
-3. 정통하다, 잘 알다</t>
+1. 무관심한
+2. 강화하다
+3. 영감을 받다</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2, 영감을 받다</t>
+          <t>3, 영감을 받다</t>
         </is>
       </c>
     </row>
